--- a/src/test/resources/valid_training.xlsx
+++ b/src/test/resources/valid_training.xlsx
@@ -41,7 +41,7 @@
     <t>1111111111 1</t>
   </si>
   <si>
-    <t>nemreg1es@mail.com1</t>
+    <t>nemreg1es1@mail.com</t>
   </si>
   <si>
     <t>Most 1es 2</t>
@@ -53,7 +53,7 @@
     <t>1111111111 2</t>
   </si>
   <si>
-    <t>nemreg1es@mail.com2</t>
+    <t>nemreg1es2@mail.com</t>
   </si>
   <si>
     <t>Most 1es 3</t>
@@ -65,7 +65,7 @@
     <t>1111111111 3</t>
   </si>
   <si>
-    <t>nemreg1es@mail.com3</t>
+    <t>nemreg1es3@mail.com</t>
   </si>
   <si>
     <t>Most 1es 4</t>
@@ -77,7 +77,7 @@
     <t>1111111111 4</t>
   </si>
   <si>
-    <t>nemreg1es@mail.com4</t>
+    <t>nemreg1es4@mail.com</t>
   </si>
   <si>
     <t>Most 1es 5</t>
@@ -89,7 +89,7 @@
     <t>1111111111 5</t>
   </si>
   <si>
-    <t>nemreg1es@mail.com5</t>
+    <t>nemreg1es5@mail.com</t>
   </si>
 </sst>
 </file>
@@ -185,13 +185,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
